--- a/docs/ToDos.xlsx
+++ b/docs/ToDos.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="135" windowWidth="20475" windowHeight="8955"/>
+    <workbookView xWindow="600" yWindow="165" windowWidth="20475" windowHeight="8925"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -31,6 +31,46 @@
   </si>
   <si>
     <t>状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收市后检查pos文件是否删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在start.sh加移除pos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在stop中确认移除pos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-1220</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部署zce新程序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>explorer 在start.sh中，加移除非st的so</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查所有stop脚本，正确删除。Pos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expl dce数据有问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>explorer 日志打包，下载加密，解密</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -398,16 +438,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16.25" customWidth="1"/>
-    <col min="2" max="3" width="21.125" customWidth="1"/>
+    <col min="2" max="2" width="40.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.125" customWidth="1"/>
     <col min="4" max="4" width="31.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -426,7 +467,53 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="1"/>
+      <c r="A2" s="1">
+        <v>43453</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
